--- a/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
+++ b/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youngto\workspaces\chpladmin\chpl-api\chpl\chpl-resources\bin\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youngto\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0FD0624-CBD1-4FA3-8D85-4D039903C636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2643EC8E-A24A-4347-BE60-896401F1C705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="2820" yWindow="2820" windowWidth="21600" windowHeight="11280" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="(b)(10) Mar2024" sheetId="10" r:id="rId1"/>
-    <sheet name="(b)(10)Jan2025" sheetId="9" r:id="rId2"/>
+    <sheet name="Template" sheetId="9" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Requires Update</t>
   </si>
@@ -102,12 +101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +215,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'(b)(10) Mar2024'!$A$3</c:f>
+              <c:f>Template!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -256,7 +254,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{2BA4DD7E-7B2F-4148-BA27-DB1DC9EBF809}" type="CELLRANGE">
+                    <a:fld id="{86D36E8E-CBD7-4E76-80D3-E7D3607652E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1">
@@ -315,7 +313,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{00000007-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -326,7 +324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22DE96BF-7A11-491A-BD35-F95647F97514}" type="CELLRANGE">
+                    <a:fld id="{34975F00-0731-4181-8809-C032206A80C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -348,7 +346,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{00000008-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -359,7 +357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9DF0FFD-D6E0-4258-9796-824139132473}" type="CELLRANGE">
+                    <a:fld id="{0FA71812-3991-4DCF-BD26-666908CD29C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -381,7 +379,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{00000009-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -392,7 +390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1E22842-57B2-4220-AAD5-703917694E49}" type="CELLRANGE">
+                    <a:fld id="{A5D44BD5-6A64-4FBF-8DA7-D3B955DE8208}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -414,7 +412,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{0000000A-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -425,7 +423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1459B114-59C9-43AB-B940-4D250D3063F5}" type="CELLRANGE">
+                    <a:fld id="{B35FDDA0-095A-4BD4-9A70-D8B9784F07B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -447,7 +445,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{0000000B-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -458,7 +456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3185EA20-0358-4C84-8D59-838847BCEE24}" type="CELLRANGE">
+                    <a:fld id="{305355AE-1913-4E94-BF2A-47053E8440CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -480,7 +478,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{0000000C-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -491,7 +489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51959539-6225-4DA2-8401-DD6158A792D1}" type="CELLRANGE">
+                    <a:fld id="{8D9D5BBD-5A3C-4363-933A-26D37098D129}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -513,7 +511,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{0000000D-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -524,7 +522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{522218F0-2F0D-40AE-9472-A9FB65544DB3}" type="CELLRANGE">
+                    <a:fld id="{3EA7AF45-D442-428C-964D-66974125B9B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -546,7 +544,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{0000000E-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -557,7 +555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B75689CB-498A-4D83-BD35-30E757FF2E97}" type="CELLRANGE">
+                    <a:fld id="{607EFEE1-CC4F-48D0-801C-BA2CB417BF95}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -579,7 +577,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{0000000F-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -590,7 +588,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C96D6ABE-84E4-4D25-A9E8-521F2E646E53}" type="CELLRANGE">
+                    <a:fld id="{C084D6BC-E1CF-4D5F-8C52-15B7C73B3E04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -612,7 +610,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{00000010-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -623,7 +621,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D44A9517-9EF9-4DB0-A0C1-4FE8EA9CC13B}" type="CELLRANGE">
+                    <a:fld id="{1E675EA8-D164-44EA-85C7-98CDABF22CD7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -645,7 +643,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{00000011-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -656,7 +654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0CDAEB9-7D9B-48B9-996F-8450FAB3D078}" type="CELLRANGE">
+                    <a:fld id="{21AC6DC3-3509-4FE8-9FEE-0EC88448F8AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -678,7 +676,7 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-E4ED-4870-9121-562370C7F4EC}"/>
+                  <c16:uniqueId val="{00000012-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -738,52 +736,16 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$1:$M$1</c:f>
+              <c:f>Template!$B$1:$M$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>45027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45088</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45118</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45149</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45241</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45271</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45302</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45362</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$3:$M$3</c:f>
+              <c:f>Template!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -821,7 +783,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,7 +791,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'(b)(10) Mar2024'!$B$8:$M$8</c15:f>
+                <c15:f>Template!$B$8:$M$8</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="12"/>
                   <c:pt idx="0">
@@ -866,13 +828,13 @@
                     <c:v>#DIV/0!</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>11.97%</c:v>
+                    <c:v>#DIV/0!</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-E4ED-4870-9121-562370C7F4EC}"/>
+              <c16:uniqueId val="{00000000-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -881,7 +843,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'(b)(10) Mar2024'!$A$2</c:f>
+              <c:f>Template!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -904,52 +866,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$1:$M$1</c:f>
+              <c:f>Template!$B$1:$M$1</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>45027</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45057</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45088</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45118</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45149</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45241</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45271</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45302</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45362</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$2:$M$2</c:f>
+              <c:f>Template!$B$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -987,14 +913,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>250</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-E4ED-4870-9121-562370C7F4EC}"/>
+              <c16:uniqueId val="{00000001-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1019,7 +945,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'(b)(10) Mar2024'!$A$7</c:f>
+              <c:f>Template!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1060,7 +986,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$7:$M$7</c:f>
+              <c:f>Template!$B$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1098,7 +1024,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>258</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,7 +1032,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-E4ED-4870-9121-562370C7F4EC}"/>
+              <c16:uniqueId val="{00000003-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1131,7 +1057,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'(b)(10) Mar2024'!$A$3</c:f>
+              <c:f>Template!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1166,7 +1092,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$3:$M$3</c:f>
+              <c:f>Template!$B$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1204,7 +1130,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,7 +1138,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-E4ED-4870-9121-562370C7F4EC}"/>
+              <c16:uniqueId val="{0000001A-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1221,7 +1147,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'(b)(10) Mar2024'!$A$4</c:f>
+              <c:f>Template!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1256,7 +1182,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$4:$M$4</c:f>
+              <c:f>Template!$B$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1294,7 +1220,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1302,7 +1228,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-E4ED-4870-9121-562370C7F4EC}"/>
+              <c16:uniqueId val="{0000001B-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1311,7 +1237,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'(b)(10) Mar2024'!$A$5</c:f>
+              <c:f>Template!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1346,7 +1272,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$5:$M$5</c:f>
+              <c:f>Template!$B$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1384,7 +1310,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,7 +1318,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-E4ED-4870-9121-562370C7F4EC}"/>
+              <c16:uniqueId val="{0000001C-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1401,7 +1327,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'(b)(10) Mar2024'!$A$6</c:f>
+              <c:f>Template!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1440,7 +1366,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'(b)(10) Mar2024'!$B$6:$M$6</c:f>
+              <c:f>Template!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1478,7 +1404,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,7 +1412,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-E4ED-4870-9121-562370C7F4EC}"/>
+              <c16:uniqueId val="{0000001D-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1513,7 +1439,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'(b)(10) Mar2024'!$A$8</c15:sqref>
+                          <c15:sqref>Template!$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1598,7 +1524,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'(b)(10) Mar2024'!$B$6:$M$6</c15:sqref>
+                          <c15:sqref>Template!$B$6:$M$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1639,7 +1565,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>26</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1649,1447 +1575,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'(b)(10) Mar2024'!$B$8:$M$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.11971830985915492</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000013-E4ED-4870-9121-562370C7F4EC}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="697930415"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="45362"/>
-          <c:min val="45027"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="697937487"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="697937487"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="400"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="697930415"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="578315296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="638060560"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="638060560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="578315296"/>
-        <c:crosses val="max"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>(b)(10) Up-to-Date Progress</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12494805972021503"/>
-          <c:y val="0.12075069311153765"/>
-          <c:w val="0.8469468697760274"/>
-          <c:h val="0.65825764101944073"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'(b)(10)Jan2025'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fully Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                    <a:noAutofit/>
-                  </a:bodyPr>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="3.6664317749769484E-2"/>
-                      <c:h val="4.7115041244002551E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>'(b)(10)Jan2025'!$B$8:$M$8</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="12"/>
-                  <c:pt idx="0">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>#DIV/0!</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'(b)(10)Jan2025'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Requires Update</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$1:$M$1</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\-yy</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$2:$M$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="697930415"/>
-        <c:axId val="697937487"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'(b)(10)Jan2025'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total listings for criterion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$7:$M$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="697930415"/>
-        <c:axId val="697937487"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'(b)(10)Jan2025'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fully Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$3:$M$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'(b)(10)Jan2025'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Code Sets Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001B-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'(b)(10)Jan2025'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Functionality Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$5:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'(b)(10)Jan2025'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standards Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'(b)(10)Jan2025'!$B$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-9A5E-4AE0-BE98-E80F1D64B5D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="638060560"/>
-        <c:axId val="578315296"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'(b)(10)Jan2025'!$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>% Fully Up-to-Date</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="t"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="0"/>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'(b)(10)Jan2025'!$B$6:$M$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'(b)(10)Jan2025'!$B$8:$M$8</c15:sqref>
+                          <c15:sqref>Template!$B$8:$M$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3408,46 +1894,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3992,555 +2438,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1791970</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>36830</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F324AF5-7462-43E7-8802-C5C95EBF94D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4879,397 +2777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB720B-8CDA-41BD-920A-01520F2ED5A3}">
-  <dimension ref="A1:U8"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>45027</v>
-      </c>
-      <c r="C1" s="4">
-        <v>45057</v>
-      </c>
-      <c r="D1" s="4">
-        <v>45088</v>
-      </c>
-      <c r="E1" s="4">
-        <v>45118</v>
-      </c>
-      <c r="F1" s="4">
-        <v>45149</v>
-      </c>
-      <c r="G1" s="4">
-        <v>45180</v>
-      </c>
-      <c r="H1" s="4">
-        <v>45210</v>
-      </c>
-      <c r="I1" s="4">
-        <v>45241</v>
-      </c>
-      <c r="J1" s="4">
-        <v>45271</v>
-      </c>
-      <c r="K1" s="4">
-        <v>45302</v>
-      </c>
-      <c r="L1" s="4">
-        <v>45333</v>
-      </c>
-      <c r="M1" s="4">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>B7-B3</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:L2" si="0">C7-C3</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>M3*2</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f>M3*3</f>
-        <v>24</v>
-      </c>
-      <c r="U5" s="3">
-        <f>249/257</f>
-        <v>0.9688715953307393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>26</v>
-      </c>
-      <c r="U6" s="3">
-        <f>32/249</f>
-        <v>0.12851405622489959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7" si="1">M2+M3</f>
-        <v>258</v>
-      </c>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="e">
-        <f>(B3+B6)/(B2+B3+B6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="2" t="e">
-        <f>(C3+C6)/(C2+C3+C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="2" t="e">
-        <f t="shared" ref="D8:M8" si="2">(D3+D6)/(D2+D3+D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.11971830985915492</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC75054-93E8-4D9A-92B4-D21F75DF6BA6}">
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,21 +2811,177 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <f t="shared" ref="B2:L2" si="0">B7 - B3</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>M7 - M3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="U5" s="3">
         <f>249/257</f>
         <v>0.9688715953307393</v>
@@ -5323,6 +2991,42 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
       <c r="U6" s="3">
         <f>32/249</f>
         <v>0.12851405622489959</v>
@@ -5333,51 +3037,39 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <f>B2+B3</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:M7" si="0">C2+C3</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U7" s="3"/>

--- a/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
+++ b/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youngto\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2643EC8E-A24A-4347-BE60-896401F1C705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2ED7B8-E882-4576-85A5-A99247CFE756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2820" windowWidth="21600" windowHeight="11280" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="9" r:id="rId1"/>
@@ -254,7 +254,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{86D36E8E-CBD7-4E76-80D3-E7D3607652E4}" type="CELLRANGE">
+                    <a:fld id="{57F99CE6-533B-4D4E-998D-A8413B123192}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr b="1">
@@ -324,7 +324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34975F00-0731-4181-8809-C032206A80C0}" type="CELLRANGE">
+                    <a:fld id="{1D26D014-8A31-4F0B-A0DC-C3DA8EF536C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -357,7 +357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FA71812-3991-4DCF-BD26-666908CD29C3}" type="CELLRANGE">
+                    <a:fld id="{38B45843-60E9-46FE-9829-1FAB94696776}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -390,7 +390,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5D44BD5-6A64-4FBF-8DA7-D3B955DE8208}" type="CELLRANGE">
+                    <a:fld id="{841C167C-4C11-4E6C-9792-74718E802307}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -423,7 +423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B35FDDA0-095A-4BD4-9A70-D8B9784F07B8}" type="CELLRANGE">
+                    <a:fld id="{04F3B724-FE78-4E14-B78A-56792D49100C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -456,7 +456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{305355AE-1913-4E94-BF2A-47053E8440CB}" type="CELLRANGE">
+                    <a:fld id="{841AB74C-E4F1-4950-A792-086326039016}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -489,7 +489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D9D5BBD-5A3C-4363-933A-26D37098D129}" type="CELLRANGE">
+                    <a:fld id="{22535987-08D2-4187-B55A-3CC46081ADC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -522,7 +522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EA7AF45-D442-428C-964D-66974125B9B0}" type="CELLRANGE">
+                    <a:fld id="{891C1DB0-42E6-4828-BB55-309048531203}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -555,7 +555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{607EFEE1-CC4F-48D0-801C-BA2CB417BF95}" type="CELLRANGE">
+                    <a:fld id="{A5847E59-7AF4-4303-BD1B-452AA55787E2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -588,7 +588,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C084D6BC-E1CF-4D5F-8C52-15B7C73B3E04}" type="CELLRANGE">
+                    <a:fld id="{5DC4736F-CB52-4AE4-93F5-7F22FD52FC4E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -621,7 +621,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1E675EA8-D164-44EA-85C7-98CDABF22CD7}" type="CELLRANGE">
+                    <a:fld id="{216BC88A-CA91-4712-882C-F11B4D08F6D3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -654,7 +654,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21AC6DC3-3509-4FE8-9FEE-0EC88448F8AA}" type="CELLRANGE">
+                    <a:fld id="{94A7C9B2-5872-418B-8801-AAB376002193}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2781,7 +2781,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="U5" sqref="U5:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,10 +2982,7 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="U5" s="3">
-        <f>249/257</f>
-        <v>0.9688715953307393</v>
-      </c>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3027,10 +3024,7 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="U6" s="3">
-        <f>32/249</f>
-        <v>0.12851405622489959</v>
-      </c>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3134,23 +3128,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100054B99873F0D6546B559819D0825E003" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cffa56ad5792ecafcd3589bab1bbb308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xmlns:ns4="6c1397f4-a2e4-41e1-a56a-3ef30e67d471" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68c1c6e3f17b441c567360df559ac01a" ns3:_="" ns4:_="">
     <xsd:import namespace="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
@@ -3389,32 +3366,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA91FC1-FB23-421D-B0F5-8B5FD962DF28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3431,4 +3400,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
+++ b/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youngto\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D74D683-94FE-4CF9-BDD4-0933B049E7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1997E-EF65-4C48-8976-553CBD4EBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="2145" yWindow="1785" windowWidth="21600" windowHeight="11205" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="11" r:id="rId1"/>
@@ -1876,17 +1876,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F5CA64-B349-4540-8897-9876CE15B639}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1927,7 +1925,7 @@
         <v>45349</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1980,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2102,12 +2100,9 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="U5" s="3">
-        <f>249/257</f>
-        <v>0.9688715953307393</v>
-      </c>
+      <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2147,12 +2142,9 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="U6" s="3">
-        <f>32/249</f>
-        <v>0.12851405622489959</v>
-      </c>
+      <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +2186,7 @@
       </c>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2215,6 +2207,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100054B99873F0D6546B559819D0825E003" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cffa56ad5792ecafcd3589bab1bbb308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xmlns:ns4="6c1397f4-a2e4-41e1-a56a-3ef30e67d471" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68c1c6e3f17b441c567360df559ac01a" ns3:_="" ns4:_="">
     <xsd:import namespace="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
@@ -2453,24 +2462,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA91FC1-FB23-421D-B0F5-8B5FD962DF28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2487,29 +2504,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
+++ b/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youngto\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE1997E-EF65-4C48-8976-553CBD4EBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3AEC6B-33C0-4C07-BEF7-F47AC466149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="1785" windowWidth="21600" windowHeight="11205" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="11" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>Standards Up-to-Date</t>
   </si>
   <si>
-    <t>Functionality Up-to-Date</t>
-  </si>
-  <si>
     <t>Code Sets Up-to-Date</t>
   </si>
   <si>
     <t>Total listings for criterion</t>
+  </si>
+  <si>
+    <t>Functionalities Tested Up-to-Date</t>
   </si>
 </sst>
 </file>
@@ -1876,11 +1876,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F5CA64-B349-4540-8897-9876CE15B639}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2021,7 +2023,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2062,7 +2064,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2146,7 +2148,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2207,23 +2209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100054B99873F0D6546B559819D0825E003" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cffa56ad5792ecafcd3589bab1bbb308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xmlns:ns4="6c1397f4-a2e4-41e1-a56a-3ef30e67d471" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68c1c6e3f17b441c567360df559ac01a" ns3:_="" ns4:_="">
     <xsd:import namespace="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
@@ -2462,32 +2447,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA91FC1-FB23-421D-B0F5-8B5FD962DF28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2504,4 +2481,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
+++ b/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youngto\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3AEC6B-33C0-4C07-BEF7-F47AC466149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67B6C2-7E5D-4773-9C0C-6D7049D8F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
@@ -194,15 +194,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Template!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fully Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Fully Up-to-Date</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -314,15 +306,7 @@
           <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Template!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Requires Update</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Requires Update</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -452,15 +436,7 @@
           <c:idx val="6"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Template!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total listings for criterion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Total listings for criterion</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -539,15 +515,7 @@
           <c:idx val="4"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Template!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Code Sets Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Code Sets Up-to-Date</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -623,15 +591,7 @@
           <c:idx val="5"/>
           <c:order val="6"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Template!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Functionality Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Functionality Up-to-Date</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -707,15 +667,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Template!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standards Up-to-Date</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Standards Up-to-Date</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -806,21 +758,7 @@
                 <c:idx val="3"/>
                 <c:order val="3"/>
                 <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Template!$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>% Fully Up-to-Date</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
+                  <c:v>% Fully Up-to-Date</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
@@ -891,106 +829,88 @@
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Template!$B$6:$M$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="12"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="5">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="6">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="7">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="8">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="9">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="10">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="11">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:numLit>
                 </c:cat>
                 <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Template!$B$8:$M$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="12"/>
+                    <c:pt idx="0">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="1">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="2">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="3">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="4">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="5">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="6">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="7">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="8">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="9">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="10">
+                      <c:v>0</c:v>
+                    </c:pt>
+                    <c:pt idx="11">
+                      <c:v>0</c:v>
+                    </c:pt>
+                  </c:numLit>
                 </c:val>
                 <c:smooth val="0"/>
                 <c:extLst>
@@ -1005,21 +925,7 @@
                 <c:idx val="2"/>
                 <c:order val="4"/>
                 <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Template!$A$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Fully Up-to-Date</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
+                  <c:v>Fully Up-to-Date</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="28575" cap="rnd">
@@ -1877,7 +1783,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,6 +2115,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100054B99873F0D6546B559819D0825E003" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cffa56ad5792ecafcd3589bab1bbb308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xmlns:ns4="6c1397f4-a2e4-41e1-a56a-3ef30e67d471" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68c1c6e3f17b441c567360df559ac01a" ns3:_="" ns4:_="">
     <xsd:import namespace="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
@@ -2447,24 +2370,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA91FC1-FB23-421D-B0F5-8B5FD962DF28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2481,29 +2412,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
+++ b/chpl/chpl-resources/src/main/resources/UpdatedCriteriaStatusReport.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youngto\workspaces\chpladmin\chpl-api\chpl\chpl-resources\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB67B6C2-7E5D-4773-9C0C-6D7049D8F706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9C060-2115-4814-966F-30DE69EB4DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68FE7958-BC57-49F5-AC1F-F5C1A57C91FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="11" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1253,236 +1250,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Template"/>
-      <sheetName val="170.315 (a)(1)"/>
-      <sheetName val="170.315 (a)(2)"/>
-      <sheetName val="170.315 (a)(3)"/>
-      <sheetName val="170.315 (a)(4)"/>
-      <sheetName val="170.315 (a)(5)"/>
-      <sheetName val="170.315 (a)(9)"/>
-      <sheetName val="170.315 (a)(12)"/>
-      <sheetName val="170.315 (a)(14)"/>
-      <sheetName val="170.315 (a)(15)"/>
-      <sheetName val="170.315 (b)(2)"/>
-      <sheetName val="170.315 (b)(3)"/>
-      <sheetName val="170.315 (b)(7)"/>
-      <sheetName val="170.315 (b)(8)"/>
-      <sheetName val="170.315 (b)(9)"/>
-      <sheetName val="170.315 (b)(10)"/>
-      <sheetName val="170.315 (b)(11)"/>
-      <sheetName val="170.315 (c)(1)"/>
-      <sheetName val="170.315 (c)(2)"/>
-      <sheetName val="170.315 (c)(3)"/>
-      <sheetName val="170.315 (c)(4)"/>
-      <sheetName val="170.315 (d)(1)"/>
-      <sheetName val="170.315 (d)(2)"/>
-      <sheetName val="170.315 (d)(3)"/>
-      <sheetName val="170.315 (d)(4)"/>
-      <sheetName val="170.315 (d)(5)"/>
-      <sheetName val="170.315 (d)(6)"/>
-      <sheetName val="170.315 (d)(7)"/>
-      <sheetName val="170.315 (d)(8)"/>
-      <sheetName val="170.315 (d)(9)"/>
-      <sheetName val="170.315 (d)(10)"/>
-      <sheetName val="170.315 (d)(11)"/>
-      <sheetName val="170.315 (d)(12)"/>
-      <sheetName val="170.315 (d)(13)"/>
-      <sheetName val="170.315 (e)(1)"/>
-      <sheetName val="170.315 (e)(3)"/>
-      <sheetName val="170.315 (f)(1)"/>
-      <sheetName val="170.315 (f)(2)"/>
-      <sheetName val="170.315 (f)(3)"/>
-      <sheetName val="170.315 (f)(4)"/>
-      <sheetName val="170.315 (f)(5)"/>
-      <sheetName val="170.315 (f)(6)"/>
-      <sheetName val="170.315 (f)(7)"/>
-      <sheetName val="170.315 (g)(1)"/>
-      <sheetName val="170.315 (g)(2)"/>
-      <sheetName val="170.315 (g)(3)"/>
-      <sheetName val="170.315 (g)(4)"/>
-      <sheetName val="170.315 (g)(5)"/>
-      <sheetName val="170.315 (g)(6)"/>
-      <sheetName val="170.315 (g)(7)"/>
-      <sheetName val="170.315 (g)(9)"/>
-      <sheetName val="170.315 (g)(10)"/>
-      <sheetName val="170.315 (h)(1)"/>
-      <sheetName val="170.315 (h)(2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Requires Update</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Fully Up-to-Date</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Code Sets Up-to-Date</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Functionality Up-to-Date</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Standards Up-to-Date</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-          <cell r="F6">
-            <v>0</v>
-          </cell>
-          <cell r="G6">
-            <v>0</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-          <cell r="I6">
-            <v>0</v>
-          </cell>
-          <cell r="J6">
-            <v>0</v>
-          </cell>
-          <cell r="K6">
-            <v>0</v>
-          </cell>
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Total listings for criterion</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>% Fully Up-to-Date</v>
-          </cell>
-          <cell r="B8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="C8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="D8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="E8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="F8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="G8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="H8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="I8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="J8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="K8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="L8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-          <cell r="M8" t="e">
-            <v>#DIV/0!</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1783,7 +1550,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,23 +1882,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100054B99873F0D6546B559819D0825E003" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cffa56ad5792ecafcd3589bab1bbb308">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xmlns:ns4="6c1397f4-a2e4-41e1-a56a-3ef30e67d471" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="68c1c6e3f17b441c567360df559ac01a" ns3:_="" ns4:_="">
     <xsd:import namespace="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
@@ -2370,32 +2120,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="63b9e3fc-e3d9-4b25-9f08-bf71a160189f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA91FC1-FB23-421D-B0F5-8B5FD962DF28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2412,4 +2154,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F5C5E2-FF74-4F0D-A48F-2A211F06009F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E5AE281-2091-44EB-95A1-2B115BF9F717}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6c1397f4-a2e4-41e1-a56a-3ef30e67d471"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="63b9e3fc-e3d9-4b25-9f08-bf71a160189f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>